--- a/Outputs/My Bankroll.xlsx
+++ b/Outputs/My Bankroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4BD6A5-0F52-47A9-BD52-E53B95A2DA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6CC6C-5068-4B2E-B532-E84B577AACAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9632453-612A-44A0-BDF1-31A9056B2690}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>PLO</t>
+  </si>
+  <si>
+    <t>Hold em tourney</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Placed 2nd</t>
   </si>
 </sst>
 </file>
@@ -128,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,10 +348,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44294</c:v>
                 </c:pt>
@@ -369,16 +381,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
@@ -408,6 +423,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>159.53000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192.53000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,85 +434,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-465B-4C72-9E35-C9D655C83B5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Own Money Invested</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-465B-4C72-9E35-C9D655C83B5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -511,6 +450,148 @@
         <c:smooth val="0"/>
         <c:axId val="215340095"/>
         <c:axId val="215341759"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Own Money Invested</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>d\-mmm</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>44294</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44295</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44302</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44305</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44308</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44310</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44315</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44320</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44322</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44329</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44331</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$2:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-465B-4C72-9E35-C9D655C83B5E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="215340095"/>
@@ -1251,15 +1332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>1609724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>257174</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1584,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF3161B-F657-4AAE-92D7-BE65727B2E9C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1597,10 +1678,11 @@
     <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="13.7109375" style="2"/>
+    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="13.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1625,8 +1707,11 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44294</v>
       </c>
@@ -1641,8 +1726,9 @@
       <c r="H2" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>44295</v>
       </c>
@@ -1667,8 +1753,9 @@
       <c r="H3" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44302</v>
       </c>
@@ -1693,8 +1780,9 @@
       <c r="H4" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44305</v>
       </c>
@@ -1717,8 +1805,9 @@
       <c r="H5" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44308</v>
       </c>
@@ -1739,14 +1828,15 @@
         <v>52</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:G11" si="0">G5+F6</f>
+        <f t="shared" ref="G6:G12" si="0">G5+F6</f>
         <v>150.36000000000001</v>
       </c>
       <c r="H6" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44310</v>
       </c>
@@ -1769,8 +1859,9 @@
       <c r="H7" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44315</v>
       </c>
@@ -1793,8 +1884,9 @@
       <c r="H8" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44320</v>
       </c>
@@ -1817,8 +1909,9 @@
       <c r="H9" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44322</v>
       </c>
@@ -1844,8 +1937,9 @@
       <c r="H10" s="4">
         <v>10.050000000000001</v>
       </c>
+      <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44329</v>
       </c>
@@ -1867,6 +1961,38 @@
       </c>
       <c r="H11" s="4">
         <v>10.050000000000001</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44331</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1">
+        <f>E12-D12</f>
+        <v>33</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>192.53000000000003</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/My Bankroll.xlsx
+++ b/Outputs/My Bankroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6CC6C-5068-4B2E-B532-E84B577AACAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C976AE-405E-439D-AABD-CD649819706A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9632453-612A-44A0-BDF1-31A9056B2690}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -261,9 +261,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Bankroll</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -348,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44294</c:v>
                 </c:pt>
@@ -384,16 +381,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
@@ -426,6 +426,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>192.53000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>273.97000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,9 +459,6 @@
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
-                <c:tx>
-                  <c:v>Own Money Invested</c:v>
-                </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
@@ -491,13 +491,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>d\-mmm</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>44294</c:v>
                       </c:pt>
@@ -530,6 +530,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>44331</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44333</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -539,13 +542,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$2:$H$12</c15:sqref>
+                          <c15:sqref>Sheet1!$H$2:$H$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>10.050000000000001</c:v>
                       </c:pt>
@@ -577,6 +580,9 @@
                         <c:v>10.050000000000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>10.050000000000001</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1665,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF3161B-F657-4AAE-92D7-BE65727B2E9C}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1995,6 +2001,31 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44333</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>101.44</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E13-D13</f>
+        <v>81.44</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13" si="1">G12+F13</f>
+        <v>273.97000000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
